--- a/results_analysis/Outlet discharge comparison.xlsx
+++ b/results_analysis/Outlet discharge comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiga7385/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiga7385/Desktop/flood_simulator/results_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8085A96C-D188-B940-B5E8-FA55EDD92554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9F1F29-C53C-E143-BF1E-87842A3E8AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,14 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,11 +272,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>Sheet1!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 process repeat</c:v>
+                  <c:v>Landlab Results</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1763,1571 +1762,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cumulative</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> outlet discharge (m3) by minute</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 process repeat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$5:$F$204</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>8.1397030173609095E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43354856999070318</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4226501448955051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7396684525007551</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6664572926339254</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.730368433773648</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.549046500489951</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52.77887909946395</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.315943663074762</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122.58655465062486</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>175.97753698062485</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>233.38040044062484</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>295.75917760062475</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>363.18572446062478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>434.80436548062477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>509.0898682306248</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>590.40266872062477</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>671.44071595062474</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>735.36350044062476</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>821.50932766062476</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>898.65348493062481</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>981.57019873062484</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1066.1656732606248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1151.6589736606247</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1238.6859115906248</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1327.7946417706248</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1418.4149928706249</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1515.669217060625</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1610.208503140625</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1716.4063173106249</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1827.0496357606248</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1934.4568072906247</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2060.8176320506245</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2175.8431872106244</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2315.1299129506242</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2441.2710733606241</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2581.112476750624</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2718.9851071006242</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2879.6610856006241</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3024.6285178306243</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3198.5653941406244</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3360.0191484106244</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3529.1385748306243</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3708.7383719206241</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3883.6070473006239</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4072.209952180624</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4260.6546106906244</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4452.8685367006246</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4649.6159779906247</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4842.724600030625</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5036.9369593006249</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5236.0656008806254</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5431.2835612006256</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5627.046193420626</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5822.640549040626</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6017.739846610626</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6211.944293620626</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6404.7551986306262</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6595.7051250406266</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6784.4258529706267</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6970.6349664706268</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7154.1163930906268</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7334.8251967306269</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7512.8242295206273</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7688.201361340627</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7861.0953184606269</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8031.6991012906274</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8200.2363423706265</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8366.9370183406263</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8532.0614202706256</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8695.9820465506255</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8859.0576312406247</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9021.641370610625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9184.0776391306244</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9346.6992351106237</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9509.8227165406242</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9673.7421874906249</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9838.7231701906258</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10004.996940790626</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10172.755620040627</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10342.148784520627</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>10513.279113070626</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10686.196497190627</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10860.906950590626</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>11037.393527620627</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11215.624719550626</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>11395.557440140627</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>11577.138663370626</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>11760.306622150627</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>11944.992885880627</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>12131.124744100627</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>12318.627751330627</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>12507.428257510626</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>12697.455806680626</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>12888.645197350626</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>13080.938112580627</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>13274.284222570626</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13468.641914920627</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>13663.978670290628</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>13860.271184440628</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14057.505387670628</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14255.676290290628</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14454.787794250629</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14654.852426380628</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14855.891018890628</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>15057.932349820629</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>15261.012769900628</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15465.175769740628</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>15670.471565200629</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>15876.956636590628</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16084.693285690628</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>16293.749103310627</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>16504.196492740626</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>16716.112145950625</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>16929.576600430624</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>17144.670736660624</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>17361.444289270625</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>17579.974628380623</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>17800.353592060623</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>18022.678282480621</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>18247.047009430622</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>18473.561301370621</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>18702.32971855062</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>18933.460027060621</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>19167.052772560619</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>19403.197499560618</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>19641.970451290617</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>19883.433560080615</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>20127.634207420615</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>20374.599721450613</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>20624.346906340612</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>20876.890723690613</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>21132.245254900612</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>21390.423057490611</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>21651.434745610612</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>21915.28968169061</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>22182.001086100612</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>22451.580500800614</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>22724.034675340612</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>22999.366007050612</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>23277.573842800612</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>23558.655648280612</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>23842.607849950611</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>24129.426414820613</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>24419.107249960613</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>24711.646447120613</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>25007.040427270611</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>25305.28601071061</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>25606.380438400611</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>25910.32136539061</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>26217.10683229061</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>26526.73525078061</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>26839.205468950611</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>27154.516975780611</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>27472.670206960611</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>27793.666883380611</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>28117.51030435061</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>28444.205532640608</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>28773.759452440609</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>29106.180696730607</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>29441.479478260608</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>29779.667355280606</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>30120.756968380607</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>30464.761781650606</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>30811.695843910606</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>31161.573582520607</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>31514.409636790606</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>31870.218733870606</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>32229.015609370606</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>32590.814996380606</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>32955.631681090606</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>33323.480628880607</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>33694.377161170603</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>34068.337161790601</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>34445.376027940598</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>34825.504310230601</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>35208.723445600597</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>35595.013865980596</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>35984.353360180598</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>36376.734203410597</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>36772.174184890595</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>37170.716425150596</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>37572.541115800595</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>37977.793787200593</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>38386.562555200595</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>38798.898005560593</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>39214.827906340593</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>39634.367623780592</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>40057.527044380593</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>40484.314900930593</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>40914.74126011059</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>41348.81475841059</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>41786.542523290591</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>42227.935513690594</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>42673.228048750592</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>43122.778453300591</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>43576.876389550591</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>44035.69178380059</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44499.28590427059</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>44966.920670050589</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC3F-A74E-AA09-60F648A44330}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12 process repeats</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$5:$G$204</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>2.6914603882190902E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19879058710783792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82437192543380489</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.129858868265905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.233887312870866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.596650772130367</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.409812600510463</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>139.67879804617536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>237.38492356962496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>382.47784914571696</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>583.661953067627</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>810.49997341848098</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1054.058377366536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1336.2261487442561</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1698.729314445002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2174.7323130878881</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2742.0028286184661</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3362.3086495988932</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4007.7309859850575</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4650.0796610467696</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5281.7245994544119</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5922.5841503019392</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6917.6173048697292</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9594.1754597432191</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13413.89651034875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17941.62821415181</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23225.901572704079</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29288.836949209217</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35979.793133911517</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43181.00229847584</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50751.05365403973</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>58499.995146748013</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66166.87062979574</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73483.747506243846</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80168.93144651856</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>86069.889954401369</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>91251.71991078656</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>95913.515687384323</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100028.26239604343</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>103552.28970044044</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>106654.66728512525</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>109397.83406228034</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>111955.66672704674</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>114361.1591782052</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>116631.02605441763</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>118763.28885588431</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>120781.14200033974</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>122700.93831553735</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>124533.59310469114</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>126281.07565915528</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>127952.16418522682</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>129553.18383127863</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>131091.21650765589</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>132570.13363000218</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>133992.05900608198</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>135358.88189413256</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>136673.96122793644</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>137939.99613409096</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>139159.59481759148</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>140335.74856582072</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>141470.70733885761</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>142565.88406119897</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>143623.00051290079</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>144644.05917880053</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>145630.72429940675</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>146584.70665853043</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>147507.56671950556</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>148400.92471228991</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>149266.14833964224</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>150104.54265707239</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>150917.36970265437</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>151705.82415637988</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>152470.98172462729</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>153213.7861211648</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>153934.04515256133</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>154633.7439630049</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>155313.70810007252</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>155974.13485750314</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>156615.35140184549</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>157238.90593381537</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>157847.21552176346</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>158439.90494238277</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>159017.35825226302</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>159580.0536087639</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>160128.41543639539</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>160662.78926170873</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>161183.5223974816</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>161691.17407969991</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>162185.9618801719</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>162668.03672229458</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>163139.33156301998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>163598.94356598964</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>164047.77624212351</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>164486.81264763381</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>164915.98006709351</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>165334.62471438484</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>165743.83421162565</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>166144.04318621985</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>166534.73482629654</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>166917.06102497524</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>167291.35977540287</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>167657.71184841133</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>168015.03108095843</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>168364.71295259762</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>168705.84358906696</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>169040.36231350785</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>169368.048718709</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>169689.51940360112</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>170005.40912759854</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>170315.41405628415</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>170619.25293828573</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>170916.66247425057</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>171207.80597235356</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>171493.2637489737</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>171773.20421392468</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>172048.29355450807</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>172318.15169479189</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>172582.91539573859</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>172842.23551533677</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>173096.84878803702</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>173346.98128650885</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>173593.04118173925</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>173835.1494213629</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>174073.44070935764</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>174307.70526205748</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>174538.08953192717</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>174764.92649686852</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>174988.10410653075</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>175207.50397855148</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>175423.11843731714</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>175634.7622572878</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>175842.63469897135</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>176046.78447108006</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>176247.55705563867</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>176445.41088875732</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>176640.18388759461</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>176831.67964988158</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>177020.16136775597</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>177205.59966935712</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>177388.38603262982</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>177568.74264256915</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>177746.31814487567</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>177920.87186998385</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>178092.63087445614</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>178262.28780535562</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>178429.37988862937</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>178593.94359189313</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>178756.24158423216</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>178916.28960633211</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>179074.16283237861</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>179229.70794629009</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>179382.92878188365</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>179533.92036789228</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>179683.22953779035</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>179830.84631200039</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>179976.65742462996</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>180120.51437920108</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>180262.20732047348</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>180402.08770699505</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>180540.01229444589</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>180676.22851524167</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>180810.68386790255</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>180943.16368888205</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>181073.81677032012</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>181202.8174669742</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>181330.11762319779</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>181456.0787806627</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>181580.61945621506</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>181703.87249123162</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>181825.57569828283</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>181945.66768327419</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>182062.77400181661</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>182179.43777726378</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>182295.70546076845</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>182410.62163961952</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>182525.10430241621</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>182638.57380502467</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>182750.22871349956</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>182860.51838095378</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>182970.26104924982</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>183079.08699717681</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>183186.86076883448</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183293.61451870255</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183399.35380230815</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>183503.75736906583</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>183606.53150039981</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>183708.38203611632</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>183809.79445956144</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>183910.46783437167</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>184009.95894285943</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>184108.23068388991</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>184205.87797110633</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>184301.9951426225</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>184396.90174942985</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>184491.53518413866</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>184585.65435196675</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>184678.95205525501</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>184771.55931711604</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>184862.80641760206</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>184953.91942990691</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC3F-A74E-AA09-60F648A44330}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2004703279"/>
-        <c:axId val="1153988207"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2004703279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1153988207"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1153988207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2004703279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>compare</a:t>
             </a:r>
@@ -3424,11 +1858,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>Sheet1!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 process repeat</c:v>
+                  <c:v>Landlab Results</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4939,46 +3373,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6050,536 +4444,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6608,54 +4486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B5ED7D-13A4-6C43-ADDA-186EB6DFE050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6676,7 +4516,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6685,9 +4525,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3701206" cy="431800"/>
     <xdr:sp macro="" textlink="">
@@ -6703,7 +4543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16065500" y="457201"/>
+          <a:off x="15913100" y="1270001"/>
           <a:ext cx="3701206" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6781,6 +4621,301 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6248400" cy="655949"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C16EB0-3855-908B-E4FC-BE615E98F2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668500" y="457200"/>
+          <a:ext cx="6248400" cy="655949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>Please</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>note</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>that</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>discharge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>(discharge_cmm,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>discharge_cms)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>landlab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>results</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>are</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>an</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>approximate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>comparison</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>purpose.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>It</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>should</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>be</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>used</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>calculate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>cummulative</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>discharge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>(cum_discharge_vol</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0"/>
+            <a:t>m3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7052,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V205"/>
+  <dimension ref="B1:S205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7069,7 +5204,7 @@
     <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -7077,7 +5212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -7085,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -7104,11 +5239,8 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -7131,7 +5263,7 @@
         <v>4.4857673136984837E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -7157,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -7192,7 +5324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -7228,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -7264,7 +5396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -7300,7 +5432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -7336,7 +5468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
@@ -7372,7 +5504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
@@ -7408,7 +5540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
@@ -7444,7 +5576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10</v>
       </c>
@@ -7480,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11</v>
       </c>

--- a/results_analysis/Outlet discharge comparison.xlsx
+++ b/results_analysis/Outlet discharge comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiga7385/Desktop/flood_simulator/results_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9F1F29-C53C-E143-BF1E-87842A3E8AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D60C5A2-2670-A34C-8CE7-0AE6E8E24552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5189,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
